--- a/DESIGN/rules/Example 3 - Auto Policy Calculation/AutoPolicyTests.xlsx
+++ b/DESIGN/rules/Example 3 - Auto Policy Calculation/AutoPolicyTests.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="152">
   <si>
     <t>2005 Honda Odyssey</t>
   </si>
@@ -805,6 +805,9 @@
   </si>
   <si>
     <t>Test DetermineDriverPremium DriverPremiumTest</t>
+  </si>
+  <si>
+    <t>Senior Driver</t>
   </si>
 </sst>
 </file>
@@ -911,7 +914,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color theme="0" tint="-0.34998626667073579" rgb="FFFFFF"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
       <charset val="204"/>
@@ -932,13 +935,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.34998626667073579" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,7 +959,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.14999847407452621" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,14 +1035,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
   </cellStyleXfs>
   <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1116,10 +1115,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1208,7 +1207,7 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1225,11 +1224,10 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
-    <cellStyle name="Hyperlink 2" xfId="2"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1609,13 +1607,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="10.85546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="23.7109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="20.85546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="21.42578125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="22.85546875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="8.42578125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -1795,13 +1793,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.5703125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="7.7109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="32.140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="21" width="24.140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="21" width="24.28515625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.42578125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="7.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
@@ -2048,12 +2046,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="23.42578125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="23.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="26.140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="11.140625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2129,7 +2127,7 @@
         <v>35</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>46</v>
@@ -2200,13 +2198,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="22.85546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="18.85546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="21.7109375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="21.85546875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="16.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2989,12 +2987,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="14.5703125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="17.5703125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="15.7109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -3695,13 +3693,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="12.7109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="25.5703125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="15.42578125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="22.28515625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="16.85546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="12.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -4374,12 +4372,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="22.140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="25.85546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="19.85546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="20.28515625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="13.42578125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -4923,8 +4921,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="20.85546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="26.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">

--- a/DESIGN/rules/Example 3 - Auto Policy Calculation/AutoPolicyTests.xlsx
+++ b/DESIGN/rules/Example 3 - Auto Policy Calculation/AutoPolicyTests.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="153">
   <si>
     <t>2005 Honda Odyssey</t>
   </si>
@@ -808,6 +808,9 @@
   </si>
   <si>
     <t>Senior Driver</t>
+  </si>
+  <si>
+    <t>Yearqwdqw</t>
   </si>
 </sst>
 </file>
@@ -953,7 +956,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.249977111117893" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1607,13 +1610,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="10.85546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="23.7109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="20.85546875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="21.42578125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="22.85546875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="8.42578125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="8.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -1793,13 +1796,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.5703125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="7.7109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="32.140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="21" width="24.140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="21" width="24.28515625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.42578125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="7.5703125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="21" width="24.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="21" width="24.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="7.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
@@ -2046,12 +2049,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="23.42578125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="23.0" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="26.140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="11.140625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.28515625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2198,13 +2201,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="22.85546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="18.85546875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="21.7109375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="21.85546875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="16.28515625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2987,12 +2990,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="14.5703125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="17.5703125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -3693,13 +3696,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="12.7109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="25.5703125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="15.42578125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="22.28515625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="16.85546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="12.140625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -3772,7 +3775,7 @@
         <v>79</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="E10" s="30">
         <v>2005</v>
@@ -4372,12 +4375,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="22.140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="25.85546875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="19.85546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="20.28515625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="13.42578125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -4921,8 +4924,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="20.85546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="26.140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="26.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">

--- a/DESIGN/rules/Example 3 - Auto Policy Calculation/AutoPolicyTests.xlsx
+++ b/DESIGN/rules/Example 3 - Auto Policy Calculation/AutoPolicyTests.xlsx
@@ -1692,8 +1692,8 @@
       <c r="C10" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="32">
-        <v>0</v>
+      <c r="D10" s="32" t="n">
+        <v>2.0</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>46</v>
